--- a/sorensenLab/relatedToDlg2/design20210511_dlg2DegronConstructs/nterminal/oligoDesignWorkbookDlg2NterminalDegron.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210511_dlg2DegronConstructs/nterminal/oligoDesignWorkbookDlg2NterminalDegron.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -365,6 +365,42 @@
   </si>
   <si>
     <t>GGTGTCGTCCATCACAGTTTG</t>
+  </si>
+  <si>
+    <t>dlg2VerifyFwd1</t>
+  </si>
+  <si>
+    <t>dlg2VerifyRev1</t>
+  </si>
+  <si>
+    <t>dlg2VerifyRev2</t>
+  </si>
+  <si>
+    <t>glenthorne passage</t>
+  </si>
+  <si>
+    <t>dlg2VerifyFwd2</t>
+  </si>
+  <si>
+    <t>dlg2VerifyFwd3</t>
+  </si>
+  <si>
+    <t>dlg2VerifyRev3</t>
+  </si>
+  <si>
+    <t>GGAAGGCATTTCACATTCAATCAA</t>
+  </si>
+  <si>
+    <t>CCAGCCCCCATGGACTTTTTAC</t>
+  </si>
+  <si>
+    <t>AGGCATTTCACATTCAATCAATCA</t>
+  </si>
+  <si>
+    <t>AGGAACAAGTAACTTCTATGGTCTG</t>
+  </si>
+  <si>
+    <t>CAGCCCCCATGGACTTTTTACA</t>
   </si>
 </sst>
 </file>
@@ -423,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -434,6 +470,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,6 +814,9 @@
       <c r="C3" s="3">
         <v>60</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1002,18 +1042,91 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="3">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3">
+        <v>65</v>
+      </c>
+      <c r="E21" s="3">
+        <v>990</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3">
+        <v>64</v>
+      </c>
+      <c r="E23" s="3">
+        <v>987</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3">
+        <v>59</v>
+      </c>
+      <c r="D25" s="3">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sorensenLab/relatedToDlg2/design20210511_dlg2DegronConstructs/nterminal/oligoDesignWorkbookDlg2NterminalDegron.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210511_dlg2DegronConstructs/nterminal/oligoDesignWorkbookDlg2NterminalDegron.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -367,40 +367,135 @@
     <t>GGTGTCGTCCATCACAGTTTG</t>
   </si>
   <si>
-    <t>dlg2VerifyFwd1</t>
-  </si>
-  <si>
-    <t>dlg2VerifyRev1</t>
-  </si>
-  <si>
-    <t>dlg2VerifyRev2</t>
-  </si>
-  <si>
     <t>glenthorne passage</t>
   </si>
   <si>
-    <t>dlg2VerifyFwd2</t>
-  </si>
-  <si>
-    <t>dlg2VerifyFwd3</t>
-  </si>
-  <si>
-    <t>dlg2VerifyRev3</t>
-  </si>
-  <si>
-    <t>GGAAGGCATTTCACATTCAATCAA</t>
-  </si>
-  <si>
-    <t>CCAGCCCCCATGGACTTTTTAC</t>
-  </si>
-  <si>
-    <t>AGGCATTTCACATTCAATCAATCA</t>
-  </si>
-  <si>
-    <t>AGGAACAAGTAACTTCTATGGTCTG</t>
-  </si>
-  <si>
-    <t>CAGCCCCCATGGACTTTTTACA</t>
+    <t>dlg2NdegFwd1</t>
+  </si>
+  <si>
+    <t>dlg2NdegFwd2</t>
+  </si>
+  <si>
+    <t>dlg2NdegRev1</t>
+  </si>
+  <si>
+    <t>AGCGAGATGACACAGAAGGAAGT</t>
+  </si>
+  <si>
+    <t>GTTTTCCAGGTACGTTTTGGGA</t>
+  </si>
+  <si>
+    <t>dlg2NdegRev2</t>
+  </si>
+  <si>
+    <t>CGAGATGACACAGAAGGAAGTCT</t>
+  </si>
+  <si>
+    <t>CAAAGGAACCAACAACGTGGG</t>
+  </si>
+  <si>
+    <t>dlg2NoAidFwd1</t>
+  </si>
+  <si>
+    <t>dlg2NoAidRev1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CCTGCAGGTCGACTCTAGAG</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GTCCAAGGGTTTGGTCCACAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGAACCCTGGACCTAGATCT</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GGCGCTGGTGCAGACTAC</t>
+    </r>
+  </si>
+  <si>
+    <t>dlg2NoAidFwd2</t>
+  </si>
+  <si>
+    <t>dlg2NoAidRev2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTGTAGTCTGCACCAGCGCC</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGATCTAGGTCCAGGGTTCTCC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AAAACGACGGCCAGTGAATT</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAGCCCCCATGGACTTTTTAC</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -751,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +910,7 @@
         <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1042,48 +1137,31 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="3">
-        <v>59</v>
-      </c>
-      <c r="D21" s="3">
-        <v>65</v>
-      </c>
-      <c r="E21" s="3">
-        <v>990</v>
-      </c>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="3">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="E22" s="3">
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3">
-        <v>58</v>
-      </c>
-      <c r="D23" s="3">
-        <v>64</v>
-      </c>
-      <c r="E23" s="3">
-        <v>987</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,38 +1169,74 @@
         <v>49</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3">
         <v>60</v>
+      </c>
+      <c r="E24" s="3">
+        <v>839</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
       <c r="C25" s="3">
-        <v>59</v>
-      </c>
-      <c r="D25" s="3">
-        <v>65</v>
-      </c>
-      <c r="E25" s="3">
-        <v>923</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="3">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3">
+        <v>60</v>
+      </c>
+      <c r="E28" s="3">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>61</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
